--- a/data/trans_orig/P36B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DEDBAC5-2182-49A8-B186-83A72598E3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F75A5C9-E2E3-495F-AE5F-3351DBF955E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D368D59C-DE7C-40AD-9E12-519550AB9152}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B56790DB-4AE7-4E36-A55C-E967C084C74A}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="191">
-  <si>
-    <t>Población según la frecuencia de consumición de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="188">
+  <si>
+    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,19 +74,19 @@
     <t>33,07%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>31,01%</t>
@@ -95,7 +95,7 @@
     <t>28,73%</t>
   </si>
   <si>
-    <t>33,27%</t>
+    <t>33,25%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,508 +104,499 @@
     <t>17,0%</t>
   </si>
   <si>
-    <t>14,75%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>21,3%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>20,35%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>18,51%</t>
+    <t>18,62%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1020,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D5A69A-7DF2-450A-B005-D2694935D233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F830CB9-0151-4697-BD03-49E555F0FD9B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1354,7 +1345,7 @@
         <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>129</v>
@@ -1363,13 +1354,13 @@
         <v>142254</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>229</v>
@@ -1378,13 +1369,13 @@
         <v>242899</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,13 +1390,13 @@
         <v>751898</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>883</v>
@@ -1414,13 +1405,13 @@
         <v>984525</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1643</v>
@@ -1429,18 +1420,18 @@
         <v>1736423</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1452,13 +1443,13 @@
         <v>480739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>439</v>
@@ -1467,13 +1458,13 @@
         <v>452030</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>895</v>
@@ -1482,13 +1473,13 @@
         <v>932769</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,13 +1494,13 @@
         <v>415085</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>347</v>
@@ -1518,13 +1509,13 @@
         <v>364278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>740</v>
@@ -1533,13 +1524,13 @@
         <v>779363</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,13 +1545,13 @@
         <v>446817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>413</v>
@@ -1569,13 +1560,13 @@
         <v>429513</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>831</v>
@@ -1584,13 +1575,13 @@
         <v>876330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,13 +1596,13 @@
         <v>363361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>337</v>
@@ -1620,13 +1611,13 @@
         <v>350221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>685</v>
@@ -1635,13 +1626,13 @@
         <v>713582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,13 +1647,13 @@
         <v>347556</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>360</v>
@@ -1671,13 +1662,13 @@
         <v>379528</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>677</v>
@@ -1686,13 +1677,13 @@
         <v>727085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,13 +1698,13 @@
         <v>2053558</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1896</v>
@@ -1722,13 +1713,13 @@
         <v>1975571</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3828</v>
@@ -1737,18 +1728,18 @@
         <v>4029129</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1760,7 +1751,7 @@
         <v>91382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>107</v>
@@ -1883,7 +1874,7 @@
         <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>235</v>
@@ -1892,13 +1883,13 @@
         <v>251090</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1904,13 @@
         <v>103058</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -1928,13 +1919,13 @@
         <v>96938</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>187</v>
@@ -1943,13 +1934,13 @@
         <v>199995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,13 +1955,13 @@
         <v>125412</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -1979,13 +1970,13 @@
         <v>133550</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>242</v>
@@ -1994,13 +1985,13 @@
         <v>258962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,13 +2006,13 @@
         <v>544689</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2030,13 +2021,13 @@
         <v>544684</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1021</v>
@@ -2045,13 +2036,13 @@
         <v>1089373</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2059,13 @@
         <v>820749</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>784</v>
@@ -2083,13 +2074,13 @@
         <v>832435</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>1576</v>
@@ -2098,13 +2089,13 @@
         <v>1653185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2110,13 @@
         <v>634123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>601</v>
@@ -2134,13 +2125,13 @@
         <v>639198</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1207</v>
@@ -2149,13 +2140,13 @@
         <v>1273321</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2161,13 @@
         <v>719443</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>698</v>
@@ -2185,13 +2176,13 @@
         <v>740358</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>1382</v>
@@ -2200,13 +2191,13 @@
         <v>1459802</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2212,13 @@
         <v>602215</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
         <v>603</v>
@@ -2236,13 +2227,13 @@
         <v>637456</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>1179</v>
@@ -2251,13 +2242,13 @@
         <v>1239671</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2263,13 @@
         <v>573614</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>615</v>
@@ -2287,13 +2278,13 @@
         <v>655332</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>1148</v>
@@ -2302,13 +2293,13 @@
         <v>1228946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2314,13 @@
         <v>3350145</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3301</v>
@@ -2338,13 +2329,13 @@
         <v>3504780</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6492</v>
@@ -2353,18 +2344,18 @@
         <v>6854925</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F75A5C9-E2E3-495F-AE5F-3351DBF955E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB529605-714E-4FEB-93C7-1BE2E595A9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B56790DB-4AE7-4E36-A55C-E967C084C74A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C1EB289-016C-4DB6-8C39-AEBD55767C6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="188">
-  <si>
-    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="189">
+  <si>
+    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2016 (Tasa respuesta: 99,24%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>33,07%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
   </si>
   <si>
     <t>31,01%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>17,0%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,469 +134,472 @@
     <t>18,49%</t>
   </si>
   <si>
-    <t>15,87%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>16,91%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1011,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F830CB9-0151-4697-BD03-49E555F0FD9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BBE078-3D85-4251-868C-5CF88A0FE4A8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1566,7 +1569,7 @@
         <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>831</v>
@@ -1575,13 +1578,13 @@
         <v>876330</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1599,13 @@
         <v>363361</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>337</v>
@@ -1611,13 +1614,13 @@
         <v>350221</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>685</v>
@@ -1626,13 +1629,13 @@
         <v>713582</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1650,13 @@
         <v>347556</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>360</v>
@@ -1662,13 +1665,13 @@
         <v>379528</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>677</v>
@@ -1751,13 +1754,13 @@
         <v>91382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -1766,13 +1769,13 @@
         <v>90622</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -1781,13 +1784,13 @@
         <v>182004</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1805,13 @@
         <v>91221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -1904,13 +1907,13 @@
         <v>103058</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -1919,10 +1922,10 @@
         <v>96938</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>137</v>
@@ -1985,13 +1988,13 @@
         <v>258962</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2062,13 @@
         <v>820749</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>784</v>
@@ -2074,13 +2077,13 @@
         <v>832435</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>1576</v>
@@ -2089,13 +2092,13 @@
         <v>1653185</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2113,13 @@
         <v>634123</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>601</v>
@@ -2125,13 +2128,13 @@
         <v>639198</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1207</v>
@@ -2140,10 +2143,10 @@
         <v>1273321</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>166</v>
@@ -2161,13 +2164,13 @@
         <v>719443</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>698</v>
@@ -2176,13 +2179,13 @@
         <v>740358</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>1382</v>
@@ -2191,13 +2194,13 @@
         <v>1459802</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,13 +2215,13 @@
         <v>602215</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="H25" s="7">
         <v>603</v>
@@ -2227,13 +2230,13 @@
         <v>637456</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>1179</v>
@@ -2242,13 +2245,13 @@
         <v>1239671</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2266,13 @@
         <v>573614</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>615</v>
@@ -2278,13 +2281,13 @@
         <v>655332</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>1148</v>
@@ -2293,13 +2296,13 @@
         <v>1228946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,7 +2358,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB529605-714E-4FEB-93C7-1BE2E595A9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8588E43-B8B8-4BA3-BD0A-E9096673C9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C1EB289-016C-4DB6-8C39-AEBD55767C6C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5790746-41BC-4B39-B6B4-A8EB533C17DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="191">
   <si>
     <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2016 (Tasa respuesta: 99,24%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>33,07%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
   </si>
   <si>
     <t>31,01%</t>
   </si>
   <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,502 +104,508 @@
     <t>17,0%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>14,79%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>16,91%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1014,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BBE078-3D85-4251-868C-5CF88A0FE4A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083477E5-708C-4025-B283-24392872B39A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,7 +1354,7 @@
         <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>129</v>
@@ -1357,13 +1363,13 @@
         <v>142254</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>229</v>
@@ -1372,13 +1378,13 @@
         <v>242899</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,13 +1399,13 @@
         <v>751898</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>883</v>
@@ -1408,13 +1414,13 @@
         <v>984525</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1643</v>
@@ -1423,18 +1429,18 @@
         <v>1736423</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1446,13 +1452,13 @@
         <v>480739</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>439</v>
@@ -1461,13 +1467,13 @@
         <v>452030</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>895</v>
@@ -1476,13 +1482,13 @@
         <v>932769</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,13 +1503,13 @@
         <v>415085</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>347</v>
@@ -1512,13 +1518,13 @@
         <v>364278</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>740</v>
@@ -1527,13 +1533,13 @@
         <v>779363</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,13 +1554,13 @@
         <v>446817</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>413</v>
@@ -1563,13 +1569,13 @@
         <v>429513</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>831</v>
@@ -1578,13 +1584,13 @@
         <v>876330</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,13 +1605,13 @@
         <v>363361</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>337</v>
@@ -1614,13 +1620,13 @@
         <v>350221</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>685</v>
@@ -1629,13 +1635,13 @@
         <v>713582</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,13 +1656,13 @@
         <v>347556</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>360</v>
@@ -1665,13 +1671,13 @@
         <v>379528</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>677</v>
@@ -1680,13 +1686,13 @@
         <v>727085</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,13 +1707,13 @@
         <v>2053558</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1896</v>
@@ -1716,13 +1722,13 @@
         <v>1975571</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3828</v>
@@ -1731,18 +1737,18 @@
         <v>4029129</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1754,13 +1760,13 @@
         <v>91382</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -1769,13 +1775,13 @@
         <v>90622</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -1784,13 +1790,13 @@
         <v>182004</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,13 +1811,13 @@
         <v>91221</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -1877,7 +1883,7 @@
         <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="M18" s="7">
         <v>235</v>
@@ -1886,13 +1892,13 @@
         <v>251090</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,13 +1913,13 @@
         <v>103058</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -1922,13 +1928,13 @@
         <v>96938</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>187</v>
@@ -1937,13 +1943,13 @@
         <v>199995</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,13 +1964,13 @@
         <v>125412</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -1973,13 +1979,13 @@
         <v>133550</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>242</v>
@@ -1988,7 +1994,7 @@
         <v>258962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>147</v>
@@ -2009,13 +2015,13 @@
         <v>544689</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2024,13 +2030,13 @@
         <v>544684</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1021</v>
@@ -2039,13 +2045,13 @@
         <v>1089373</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,10 +2137,10 @@
         <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>1207</v>
@@ -2143,13 +2149,13 @@
         <v>1273321</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,10 +2170,10 @@
         <v>719443</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>168</v>
@@ -2194,13 +2200,13 @@
         <v>1459802</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +2221,13 @@
         <v>602215</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>603</v>
@@ -2230,13 +2236,13 @@
         <v>637456</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>1179</v>
@@ -2245,13 +2251,13 @@
         <v>1239671</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2272,13 @@
         <v>573614</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>615</v>
@@ -2281,13 +2287,13 @@
         <v>655332</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>1148</v>
@@ -2296,13 +2302,13 @@
         <v>1228946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,13 +2323,13 @@
         <v>3350145</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3301</v>
@@ -2332,13 +2338,13 @@
         <v>3504780</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6492</v>
@@ -2347,18 +2353,18 @@
         <v>6854925</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8588E43-B8B8-4BA3-BD0A-E9096673C9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A41B33-3EB3-4A80-A9C3-C7FCB8C02440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5790746-41BC-4B39-B6B4-A8EB533C17DA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E575932E-F9CB-4151-A067-6C845BA89176}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083477E5-708C-4025-B283-24392872B39A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EA303A-85B9-4F7E-8ACE-E741DFAB0F88}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
